--- a/docss/trend/unitedkingdom/E_huntington.xlsx
+++ b/docss/trend/unitedkingdom/E_huntington.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\unitedkingdom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\unitedkingdom\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B1" sqref="B1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,13 +1583,13 @@
         <v>2001</v>
       </c>
       <c r="B2" s="7">
-        <v>0.29925094195641577</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="C2" s="7">
-        <v>0.31218095333315432</v>
+        <v>0.312</v>
       </c>
       <c r="D2" s="7">
-        <v>0.28569085686467588</v>
+        <v>0.28599999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,13 +1597,13 @@
         <v>2002</v>
       </c>
       <c r="B3" s="7">
-        <v>0.30813626537565142</v>
+        <v>0.308</v>
       </c>
       <c r="C3" s="7">
-        <v>0.32268255902454257</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D3" s="7">
-        <v>0.2963681030087173</v>
+        <v>0.29599999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,13 +1611,13 @@
         <v>2003</v>
       </c>
       <c r="B4" s="7">
-        <v>0.301833460573107</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="C4" s="7">
-        <v>0.31081134220585227</v>
+        <v>0.311</v>
       </c>
       <c r="D4" s="7">
-        <v>0.28861944773234427</v>
+        <v>0.28899999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,13 +1625,13 @@
         <v>2004</v>
       </c>
       <c r="B5" s="7">
-        <v>0.32388305419590324</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="C5" s="7">
-        <v>0.38222837215289474</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D5" s="7">
-        <v>0.26825532177463174</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,13 +1639,13 @@
         <v>2005</v>
       </c>
       <c r="B6" s="7">
-        <v>0.30826016783248633</v>
+        <v>0.308</v>
       </c>
       <c r="C6" s="7">
-        <v>0.32912045530974865</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="D6" s="7">
-        <v>0.2900951593182981</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,13 +1653,13 @@
         <v>2006</v>
       </c>
       <c r="B7" s="7">
-        <v>0.30204422562383115</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="C7" s="7">
-        <v>0.30699881538748741</v>
+        <v>0.307</v>
       </c>
       <c r="D7" s="7">
-        <v>0.30031430278904736</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,13 +1667,13 @@
         <v>2007</v>
       </c>
       <c r="B8" s="7">
-        <v>0.30069239204749465</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="C8" s="7">
-        <v>0.3243718771263957</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D8" s="7">
-        <v>0.27680340618826449</v>
+        <v>0.27700000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,13 +1681,13 @@
         <v>2008</v>
       </c>
       <c r="B9" s="7">
-        <v>0.33285996504127979</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C9" s="7">
-        <v>0.35358920111320913</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="D9" s="7">
-        <v>0.31572552840225399</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,13 +1695,13 @@
         <v>2009</v>
       </c>
       <c r="B10" s="7">
-        <v>0.30648001236841083</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="C10" s="7">
-        <v>0.37975935032591224</v>
+        <v>0.38</v>
       </c>
       <c r="D10" s="7">
-        <v>0.23854715004563332</v>
+        <v>0.23899999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,13 +1709,13 @@
         <v>2010</v>
       </c>
       <c r="B11" s="7">
-        <v>0.3131542953196913</v>
+        <v>0.313</v>
       </c>
       <c r="C11" s="7">
-        <v>0.34024914959445596</v>
+        <v>0.34</v>
       </c>
       <c r="D11" s="7">
-        <v>0.28717940649949014</v>
+        <v>0.28699999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,13 +1723,13 @@
         <v>2011</v>
       </c>
       <c r="B12" s="7">
-        <v>0.29721134761348367</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="C12" s="7">
-        <v>0.31130645470693707</v>
+        <v>0.311</v>
       </c>
       <c r="D12" s="7">
-        <v>0.28236161801032722</v>
+        <v>0.28199999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,13 +1737,13 @@
         <v>2012</v>
       </c>
       <c r="B13" s="7">
-        <v>0.32759593147784472</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="C13" s="7">
-        <v>0.33374986913986504</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D13" s="7">
-        <v>0.32117835502140224</v>
+        <v>0.32100000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,13 +1751,13 @@
         <v>2013</v>
       </c>
       <c r="B14" s="7">
-        <v>0.32027228700462729</v>
+        <v>0.32</v>
       </c>
       <c r="C14" s="7">
-        <v>0.29128795675933361</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="D14" s="7">
-        <v>0.34840995282866061</v>
+        <v>0.34799999999999998</v>
       </c>
     </row>
   </sheetData>
